--- a/nodes_source_analyses/energy/energy/energy_chp_ultra_supercritical_lignite.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_chp_ultra_supercritical_lignite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/nodes_source_analyses/energy/energy/AAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCC2C33-1B0A-0749-934A-49153003315B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEF261C-FB97-2E42-9C63-5532F7252EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="500" windowWidth="25600" windowHeight="28300" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="500" windowWidth="25600" windowHeight="28300" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="144">
   <si>
     <t>Source</t>
   </si>
@@ -151,9 +151,6 @@
     <t xml:space="preserve">Decmmmissioning cost </t>
   </si>
   <si>
-    <t>Electricity output capacity</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Electricity output capacity</t>
   </si>
   <si>
@@ -193,12 +190,6 @@
     <t>part_load_operating_point</t>
   </si>
   <si>
-    <t>electricity_output_capacity</t>
-  </si>
-  <si>
-    <t>heat_output_capacity</t>
-  </si>
-  <si>
     <t>initial_investment</t>
   </si>
   <si>
@@ -233,9 +224,6 @@
   </si>
   <si>
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
-  </si>
-  <si>
-    <t>Heat output capacity</t>
   </si>
   <si>
     <t>Investment cost with ccs</t>
@@ -732,6 +720,18 @@
   </si>
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>input capacity</t>
+  </si>
+  <si>
+    <t>Input capacity</t>
+  </si>
+  <si>
+    <t>Electrical efficiency</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1470,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1752,6 +1752,11 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="236">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2102,8 +2107,8 @@
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -2670,12 +2675,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="16"/>
+    <col min="1" max="1" width="3.5" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="22" customFormat="1">
@@ -2701,16 +2706,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2735,7 +2740,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="105" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C9" s="106"/>
     </row>
@@ -2747,31 +2752,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="107" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="107"/>
       <c r="C12" s="110" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="107"/>
       <c r="C13" s="111" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="107"/>
       <c r="C14" s="108" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2782,58 +2787,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="107" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C16" s="112" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="107"/>
       <c r="C17" s="113" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="107"/>
       <c r="C18" s="114" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="107"/>
       <c r="C19" s="115" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="116"/>
       <c r="C20" s="117" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="116"/>
       <c r="C21" s="118" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="116"/>
       <c r="C22" s="119" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="116"/>
       <c r="C23" s="120" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2847,25 +2852,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K36"/>
+  <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="2.28515625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="31" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="31" customWidth="1"/>
     <col min="7" max="7" width="45" style="31" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="50.42578125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="31"/>
+    <col min="8" max="8" width="5.1640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="50.5" style="31" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2873,7 +2878,7 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="150" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C2" s="151"/>
       <c r="D2" s="151"/>
@@ -2922,7 +2927,7 @@
     <row r="8" spans="2:11" s="38" customFormat="1" ht="19">
       <c r="B8" s="133"/>
       <c r="C8" s="129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="134" t="s">
         <v>15</v>
@@ -2954,7 +2959,7 @@
     <row r="10" spans="2:11" s="38" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="18"/>
       <c r="C10" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="14"/>
@@ -2967,7 +2972,7 @@
     <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="34"/>
       <c r="C11" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>5</v>
@@ -2979,7 +2984,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J11" s="132"/>
       <c r="K11" s="29"/>
@@ -2987,7 +2992,7 @@
     <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="34"/>
       <c r="C12" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>5</v>
@@ -2999,7 +3004,7 @@
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J12" s="132"/>
       <c r="K12" s="29"/>
@@ -3007,7 +3012,7 @@
     <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="34"/>
       <c r="C13" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>5</v>
@@ -3019,7 +3024,7 @@
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J13" s="132"/>
       <c r="K13" s="29"/>
@@ -3039,7 +3044,7 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J14" s="132"/>
       <c r="K14" s="29"/>
@@ -3047,7 +3052,7 @@
     <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="34"/>
       <c r="C15" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>5</v>
@@ -3059,7 +3064,7 @@
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J15" s="132"/>
       <c r="K15" s="29"/>
@@ -3067,7 +3072,7 @@
     <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="34"/>
       <c r="C16" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>5</v>
@@ -3079,7 +3084,7 @@
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J16" s="132"/>
       <c r="K16" s="29"/>
@@ -3087,51 +3092,43 @@
     <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="34"/>
       <c r="C17" s="30" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E17" s="41">
         <f>'Research data'!H6</f>
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="F17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>30</v>
+      <c r="G17" s="159" t="s">
+        <v>141</v>
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J17" s="132"/>
     </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1">
+    <row r="18" spans="2:10">
       <c r="B18" s="34"/>
-      <c r="C18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="40">
-        <v>300</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="28" t="s">
-        <v>57</v>
-      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="132"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="34"/>
-      <c r="C19" s="29"/>
+      <c r="C19" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D19" s="135"/>
-      <c r="E19" s="136"/>
+      <c r="E19" s="138"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
@@ -3140,142 +3137,150 @@
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="34"/>
-      <c r="C20" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="C20" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="130">
+        <f>'Research data'!H17</f>
+        <v>1225000000</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="100" t="s">
+        <v>75</v>
+      </c>
       <c r="J20" s="132"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="34"/>
       <c r="C21" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="130">
-        <f>'Research data'!H16</f>
-        <v>1225000000</v>
+        <v>34</v>
+      </c>
+      <c r="E21" s="41">
+        <v>0</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="30" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H21" s="30"/>
-      <c r="I21" s="100" t="s">
-        <v>79</v>
+      <c r="I21" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="J21" s="132"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="34"/>
       <c r="C22" s="30" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="41">
         <v>0</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J22" s="132"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="34"/>
       <c r="C23" s="30" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="41">
         <v>0</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H23" s="30"/>
       <c r="I23" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J23" s="132"/>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="34"/>
       <c r="C24" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="41">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="E24" s="130">
+        <f>'Research data'!H19</f>
+        <v>32480000</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H24" s="30"/>
-      <c r="I24" s="28" t="s">
-        <v>57</v>
+      <c r="I24" s="103" t="s">
+        <v>75</v>
       </c>
       <c r="J24" s="132"/>
     </row>
     <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="34"/>
       <c r="C25" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="130">
-        <f>'Research data'!H18</f>
-        <v>32480000</v>
+        <v>52</v>
+      </c>
+      <c r="E25" s="40">
+        <v>1540</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H25" s="30"/>
-      <c r="I25" s="103" t="s">
-        <v>79</v>
+      <c r="I25" s="28" t="s">
+        <v>75</v>
       </c>
       <c r="J25" s="132"/>
     </row>
     <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="34"/>
       <c r="C26" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="40">
-        <v>1540</v>
+        <v>52</v>
+      </c>
+      <c r="E26" s="41">
+        <v>0</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="28" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="J26" s="132"/>
     </row>
@@ -3285,64 +3290,56 @@
         <v>51</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="E27" s="41">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H27" s="30"/>
-      <c r="I27" s="28" t="s">
-        <v>57</v>
+      <c r="I27" s="111" t="s">
+        <v>139</v>
       </c>
       <c r="J27" s="132"/>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="34"/>
       <c r="C28" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="41">
+        <v>1</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="41">
-        <v>0.04</v>
-      </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="111" t="s">
-        <v>143</v>
-      </c>
       <c r="J28" s="132"/>
     </row>
-    <row r="29" spans="2:10" ht="17" thickBot="1">
+    <row r="29" spans="2:10">
       <c r="B29" s="34"/>
-      <c r="C29" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="41">
-        <v>1</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="28" t="s">
-        <v>57</v>
-      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
       <c r="J29" s="132"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="34"/>
-      <c r="C30" s="29"/>
+      <c r="C30" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="D30" s="135"/>
       <c r="E30" s="137"/>
       <c r="F30" s="29"/>
@@ -3353,112 +3350,99 @@
     </row>
     <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="34"/>
-      <c r="C31" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="135"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
+      <c r="C31" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="41">
+        <f>'Research data'!H13</f>
+        <v>0.3</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="30"/>
+      <c r="I31" s="65" t="s">
+        <v>78</v>
+      </c>
       <c r="J31" s="132"/>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="34"/>
       <c r="C32" s="30" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="41">
+        <f>'Research data'!H11</f>
         <v>4</v>
-      </c>
-      <c r="E32" s="41">
-        <f>'Research data'!H12</f>
-        <v>0.3</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="30" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H32" s="30"/>
-      <c r="I32" s="65" t="s">
-        <v>82</v>
+      <c r="I32" s="148" t="s">
+        <v>72</v>
       </c>
       <c r="J32" s="132"/>
     </row>
     <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="34"/>
       <c r="C33" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="41">
-        <f>'Research data'!H10</f>
-        <v>4</v>
+        <f>'Research data'!H12</f>
+        <v>35</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="148" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="J33" s="132"/>
     </row>
     <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="34"/>
       <c r="C34" s="30" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E34" s="41">
-        <f>'Research data'!H11</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F34" s="30"/>
-      <c r="G34" s="30" t="s">
-        <v>27</v>
-      </c>
+      <c r="G34" s="30"/>
       <c r="H34" s="30"/>
-      <c r="I34" s="148" t="s">
-        <v>135</v>
+      <c r="I34" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="J34" s="132"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1">
-      <c r="B35" s="34"/>
-      <c r="C35" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="41">
-        <v>0</v>
-      </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="132"/>
-    </row>
-    <row r="36" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="37"/>
+    <row r="35" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3474,33 +3458,33 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:R23"/>
+  <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" style="67" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="67" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="67" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" style="67" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="67" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="67" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="67" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" style="67" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="67" customWidth="1"/>
     <col min="9" max="9" width="4" style="67" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="68" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="68" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="68" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="68" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="68" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="68" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="68" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="68" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" style="68" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="68" customWidth="1"/>
     <col min="15" max="15" width="3" style="67" customWidth="1"/>
     <col min="16" max="16" width="10" style="68" customWidth="1"/>
-    <col min="17" max="17" width="2.7109375" style="68" customWidth="1"/>
-    <col min="18" max="18" width="86.42578125" style="67" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="67"/>
+    <col min="17" max="17" width="2.6640625" style="68" customWidth="1"/>
+    <col min="18" max="18" width="86.5" style="67" customWidth="1"/>
+    <col min="19" max="16384" width="10.6640625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
@@ -3526,7 +3510,7 @@
     <row r="3" spans="2:18" s="19" customFormat="1">
       <c r="B3" s="18"/>
       <c r="C3" s="121" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3535,23 +3519,23 @@
       </c>
       <c r="G3" s="121"/>
       <c r="H3" s="121" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I3" s="121"/>
       <c r="J3" s="126" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K3" s="126"/>
       <c r="L3" s="126" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M3" s="126"/>
       <c r="N3" s="126" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O3" s="121"/>
       <c r="P3" s="126" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="126"/>
       <c r="R3" s="121" t="s">
@@ -3580,7 +3564,7 @@
     <row r="5" spans="2:18" ht="17" thickBot="1">
       <c r="B5" s="72"/>
       <c r="C5" s="26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -3600,18 +3584,18 @@
     </row>
     <row r="6" spans="2:18" ht="17" thickBot="1">
       <c r="B6" s="72"/>
-      <c r="C6" s="75" t="s">
-        <v>31</v>
+      <c r="C6" s="160" t="s">
+        <v>142</v>
       </c>
       <c r="D6" s="75"/>
       <c r="E6" s="75"/>
       <c r="F6" s="76" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G6" s="78"/>
       <c r="H6" s="77">
-        <f>ROUND(700,0)</f>
-        <v>700</v>
+        <f>ROUND(H7/Notes!E95,1)</f>
+        <v>2000</v>
       </c>
       <c r="I6" s="78"/>
       <c r="J6" s="79"/>
@@ -3624,21 +3608,28 @@
       <c r="Q6" s="88"/>
       <c r="R6" s="66"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" ht="17" thickBot="1">
       <c r="B7" s="72"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="87"/>
+      <c r="C7" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="78"/>
+      <c r="H7" s="77">
+        <f>ROUND(700,0)</f>
+        <v>700</v>
+      </c>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
       <c r="P7" s="88"/>
       <c r="Q7" s="88"/>
       <c r="R7" s="66"/>
@@ -3662,83 +3653,70 @@
       <c r="Q8" s="88"/>
       <c r="R8" s="66"/>
     </row>
-    <row r="9" spans="2:18" ht="17" thickBot="1">
+    <row r="9" spans="2:18">
       <c r="B9" s="72"/>
-      <c r="C9" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="11"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="87"/>
       <c r="P9" s="88"/>
       <c r="Q9" s="88"/>
-      <c r="R9" s="27"/>
+      <c r="R9" s="66"/>
     </row>
     <row r="10" spans="2:18" ht="17" thickBot="1">
       <c r="B10" s="72"/>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="27"/>
+    </row>
+    <row r="11" spans="2:18" ht="17" thickBot="1">
+      <c r="B11" s="72"/>
+      <c r="C11" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="76" t="s">
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="90">
+      <c r="G11" s="78"/>
+      <c r="H11" s="90">
         <f>ROUND(4,0)</f>
         <v>4</v>
       </c>
-      <c r="I10" s="84"/>
-      <c r="J10" s="90">
+      <c r="I11" s="84"/>
+      <c r="J11" s="90">
         <f>Notes!E51</f>
         <v>4</v>
-      </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="66"/>
-    </row>
-    <row r="11" spans="2:18" ht="17" thickBot="1">
-      <c r="B11" s="72"/>
-      <c r="C11" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="92">
-        <f>ROUND(35,0)</f>
-        <v>35</v>
-      </c>
-      <c r="I11" s="84"/>
-      <c r="J11" s="92">
-        <f>Notes!E74</f>
-        <v>35</v>
       </c>
       <c r="K11" s="84"/>
       <c r="L11" s="74"/>
       <c r="M11" s="84"/>
-      <c r="N11" s="92">
-        <f>Notes!E124</f>
-        <v>35</v>
-      </c>
+      <c r="N11" s="147"/>
       <c r="O11" s="84"/>
       <c r="P11" s="74"/>
       <c r="Q11" s="74"/>
@@ -3746,83 +3724,94 @@
     </row>
     <row r="12" spans="2:18" ht="17" thickBot="1">
       <c r="B12" s="72"/>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="92">
+        <f>ROUND(35,0)</f>
+        <v>35</v>
+      </c>
+      <c r="I12" s="84"/>
+      <c r="J12" s="92">
+        <f>Notes!E74</f>
+        <v>35</v>
+      </c>
+      <c r="K12" s="84"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="92">
+        <f>Notes!E124</f>
+        <v>35</v>
+      </c>
+      <c r="O12" s="84"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="66"/>
+    </row>
+    <row r="13" spans="2:18" ht="17" thickBot="1">
+      <c r="B13" s="72"/>
+      <c r="C13" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="76" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="82">
+      <c r="G13" s="78"/>
+      <c r="H13" s="82">
         <f>ROUND(0.3,1)</f>
         <v>0.3</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="85">
-        <f>1070*312/1000000</f>
-        <v>0.33384000000000003</v>
-      </c>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="139" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="72"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
+      <c r="I13" s="83"/>
       <c r="J13" s="84"/>
       <c r="K13" s="84"/>
       <c r="L13" s="84"/>
       <c r="M13" s="84"/>
       <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="88"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="85">
+        <f>1070*312/1000000</f>
+        <v>0.33384000000000003</v>
+      </c>
       <c r="Q13" s="88"/>
-      <c r="R13" s="27" t="s">
-        <v>65</v>
+      <c r="R13" s="139" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="72"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
       <c r="P14" s="88"/>
       <c r="Q14" s="88"/>
-      <c r="R14" s="66"/>
-    </row>
-    <row r="15" spans="2:18" ht="17" thickBot="1">
+      <c r="R14" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
       <c r="B15" s="72"/>
-      <c r="C15" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -3838,109 +3827,103 @@
     </row>
     <row r="16" spans="2:18" ht="17" thickBot="1">
       <c r="B16" s="72"/>
-      <c r="C16" s="128" t="s">
-        <v>118</v>
+      <c r="C16" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="93">
-        <f>ROUND(H17*H6*1000,2)</f>
-        <v>1225000000</v>
-      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="11"/>
       <c r="P16" s="88"/>
       <c r="Q16" s="88"/>
-      <c r="R16" s="146" t="s">
-        <v>136</v>
-      </c>
+      <c r="R16" s="66"/>
     </row>
     <row r="17" spans="2:18" ht="17" thickBot="1">
       <c r="B17" s="72"/>
-      <c r="C17" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="122" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="78"/>
+      <c r="C17" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="73"/>
       <c r="H17" s="93">
-        <v>1750</v>
-      </c>
-      <c r="I17" s="84"/>
-      <c r="J17" s="93">
-        <f>Notes!E25</f>
-        <v>1500</v>
-      </c>
+        <f>ROUND(H18*H7*1000,2)</f>
+        <v>1225000000</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="84"/>
       <c r="K17" s="84"/>
-      <c r="L17" s="93">
-        <f>Notes!E93</f>
-        <v>1600</v>
-      </c>
+      <c r="L17" s="84"/>
       <c r="M17" s="84"/>
-      <c r="N17" s="93">
-        <f>Notes!E125</f>
-        <v>1400</v>
-      </c>
-      <c r="O17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="88"/>
       <c r="Q17" s="88"/>
-      <c r="R17" s="102" t="s">
-        <v>86</v>
+      <c r="R17" s="146" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="17" thickBot="1">
       <c r="B18" s="72"/>
       <c r="C18" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="96">
-        <f>ROUND(H19*H6*1000,2)</f>
-        <v>32480000</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="84"/>
+        <v>9</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="78"/>
+      <c r="H18" s="93">
+        <v>1750</v>
+      </c>
+      <c r="I18" s="84"/>
+      <c r="J18" s="93">
+        <f>Notes!E25</f>
+        <v>1500</v>
+      </c>
       <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
+      <c r="L18" s="93">
+        <f>Notes!E93</f>
+        <v>1600</v>
+      </c>
       <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="104" t="s">
-        <v>88</v>
+      <c r="N18" s="93">
+        <f>Notes!E125</f>
+        <v>1400</v>
+      </c>
+      <c r="O18" s="84"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="102" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="17" thickBot="1">
       <c r="B19" s="72"/>
       <c r="C19" s="89" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="123" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="G19" s="73"/>
       <c r="H19" s="96">
-        <v>46.4</v>
+        <f>ROUND(H20*H7*1000,2)</f>
+        <v>32480000</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="84"/>
@@ -3952,50 +3935,50 @@
       <c r="P19" s="84"/>
       <c r="Q19" s="84"/>
       <c r="R19" s="104" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="17" thickBot="1">
       <c r="B20" s="72"/>
       <c r="C20" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="93">
-        <f>ROUND(H21*H23/H22,2)</f>
-        <v>1540</v>
-      </c>
-      <c r="I20" s="84"/>
+        <v>111</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="73"/>
+      <c r="H20" s="96">
+        <v>46.4</v>
+      </c>
+      <c r="I20" s="12"/>
       <c r="J20" s="84"/>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
       <c r="M20" s="84"/>
       <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
+      <c r="O20" s="95"/>
       <c r="P20" s="84"/>
       <c r="Q20" s="84"/>
-      <c r="R20" s="27" t="s">
-        <v>64</v>
+      <c r="R20" s="104" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="17" thickBot="1">
       <c r="B21" s="72"/>
       <c r="C21" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="122" t="s">
-        <v>109</v>
+        <v>83</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="76" t="s">
+        <v>52</v>
       </c>
       <c r="G21" s="78"/>
       <c r="H21" s="93">
-        <v>2.2000000000000002</v>
+        <f>ROUND(H22*H24/H23,2)</f>
+        <v>1540</v>
       </c>
       <c r="I21" s="84"/>
       <c r="J21" s="84"/>
@@ -4006,47 +3989,48 @@
       <c r="O21" s="84"/>
       <c r="P21" s="84"/>
       <c r="Q21" s="84"/>
-      <c r="R21" s="66"/>
+      <c r="R21" s="27" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="2:18" ht="17" thickBot="1">
       <c r="B22" s="72"/>
       <c r="C22" s="89" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="87"/>
-      <c r="H22" s="99">
-        <v>7000</v>
-      </c>
-      <c r="I22" s="87"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
+        <v>83</v>
+      </c>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="122" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="78"/>
+      <c r="H22" s="93">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
       <c r="R22" s="66"/>
     </row>
     <row r="23" spans="2:18" ht="17" thickBot="1">
       <c r="B23" s="72"/>
       <c r="C23" s="89" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
-      <c r="F23" s="125" t="s">
-        <v>110</v>
+      <c r="F23" s="66" t="s">
+        <v>59</v>
       </c>
       <c r="G23" s="87"/>
       <c r="H23" s="99">
-        <f>H22*H6</f>
-        <v>4900000</v>
+        <v>7000</v>
       </c>
       <c r="I23" s="87"/>
       <c r="J23" s="79"/>
@@ -4059,8 +4043,34 @@
       <c r="Q23" s="88"/>
       <c r="R23" s="66"/>
     </row>
+    <row r="24" spans="2:18" ht="17" thickBot="1">
+      <c r="B24" s="72"/>
+      <c r="C24" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="125" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="87"/>
+      <c r="H24" s="99">
+        <f>H23*H7</f>
+        <v>4900000</v>
+      </c>
+      <c r="I24" s="87"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="66"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="R20">
+  <conditionalFormatting sqref="R21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4071,8 +4081,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="R13" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="R20" r:id="rId2" location="issuecomment-27889613" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="R14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="R21" r:id="rId2" location="issuecomment-27889613" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4090,18 +4100,18 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="42" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="43" customWidth="1"/>
-    <col min="11" max="11" width="83.85546875" style="42" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="42"/>
+    <col min="1" max="1" width="4.5" style="42" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="42" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="42" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="42" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="83.83203125" style="42" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4146,7 +4156,7 @@
     <row r="5" spans="2:11" ht="16" customHeight="1">
       <c r="B5" s="52"/>
       <c r="C5" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="53" t="s">
@@ -4156,16 +4166,16 @@
         <v>20</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="149" t="s">
         <v>133</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="149" t="s">
-        <v>137</v>
       </c>
       <c r="K5" s="53" t="s">
         <v>17</v>
@@ -4188,29 +4198,29 @@
       <c r="C7" s="62"/>
       <c r="D7" s="54"/>
       <c r="E7" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I7" s="51"/>
       <c r="J7" s="51" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K7" s="101" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="47"/>
       <c r="C8" s="64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="50"/>
@@ -4252,29 +4262,29 @@
       <c r="C11" s="64"/>
       <c r="D11" s="56"/>
       <c r="E11" s="54" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H11" s="145">
         <v>2010</v>
       </c>
       <c r="I11" s="58"/>
       <c r="J11" s="58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K11" s="59" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="47"/>
       <c r="C12" s="64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="54"/>
@@ -4288,7 +4298,7 @@
     <row r="13" spans="2:11">
       <c r="B13" s="47"/>
       <c r="C13" s="64" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" s="56"/>
       <c r="E13" s="54"/>
@@ -4302,7 +4312,7 @@
     <row r="14" spans="2:11">
       <c r="B14" s="47"/>
       <c r="C14" s="54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
@@ -4330,29 +4340,29 @@
       <c r="C16" s="60"/>
       <c r="D16" s="54"/>
       <c r="E16" s="54" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G16" s="51">
         <v>2012</v>
       </c>
       <c r="H16" s="51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I16" s="50"/>
       <c r="J16" s="51" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="47"/>
       <c r="C17" s="55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
@@ -4380,7 +4390,7 @@
       <c r="C19" s="54"/>
       <c r="D19" s="54"/>
       <c r="E19" s="54" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F19" s="50" t="s">
         <v>10</v>
@@ -4389,18 +4399,18 @@
         <v>2013</v>
       </c>
       <c r="H19" s="51" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
       <c r="K19" s="59" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="47"/>
       <c r="C20" s="62" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
@@ -4414,7 +4424,7 @@
     <row r="21" spans="2:11">
       <c r="B21" s="47"/>
       <c r="C21" s="62" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D21" s="54"/>
       <c r="E21" s="50"/>
@@ -4442,29 +4452,29 @@
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
       <c r="I23" s="54" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J23" s="63"/>
       <c r="K23" s="59" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="47"/>
       <c r="C24" s="62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="50" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
@@ -4491,15 +4501,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:P148"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="N91" sqref="N91"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="140" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="140" customWidth="1"/>
-    <col min="3" max="16384" width="10.7109375" style="140"/>
+    <col min="1" max="1" width="5.5" style="140" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="140" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="140"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1"/>
@@ -4523,10 +4533,10 @@
     <row r="3" spans="2:16" s="19" customFormat="1">
       <c r="B3" s="133"/>
       <c r="C3" s="129" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D3" s="129" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E3" s="129"/>
       <c r="F3" s="129"/>
@@ -4578,7 +4588,7 @@
     <row r="6" spans="2:16">
       <c r="B6" s="143"/>
       <c r="C6" s="144" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" s="144"/>
       <c r="E6" s="144"/>
@@ -4597,7 +4607,7 @@
     <row r="7" spans="2:16">
       <c r="B7" s="143"/>
       <c r="C7" s="144" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D7" s="144"/>
       <c r="E7" s="144"/>
@@ -4910,7 +4920,7 @@
         <v>1500</v>
       </c>
       <c r="F25" s="144" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G25" s="144"/>
       <c r="H25" s="144"/>
@@ -5147,7 +5157,7 @@
     <row r="39" spans="2:16">
       <c r="B39" s="143"/>
       <c r="C39" s="144" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D39" s="144"/>
       <c r="E39" s="144"/>
@@ -5360,7 +5370,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="144" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G51" s="144"/>
       <c r="H51" s="144"/>
@@ -5751,13 +5761,13 @@
       <c r="B74" s="143"/>
       <c r="C74" s="144"/>
       <c r="D74" s="144" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E74" s="144">
         <v>35</v>
       </c>
       <c r="F74" s="144" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G74" s="144"/>
       <c r="H74" s="144"/>
@@ -5774,7 +5784,7 @@
       <c r="B75" s="143"/>
       <c r="C75" s="144"/>
       <c r="D75" s="144" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E75" s="144"/>
       <c r="F75" s="144"/>
@@ -6030,7 +6040,7 @@
     <row r="90" spans="2:16">
       <c r="B90" s="143"/>
       <c r="C90" s="144" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D90" s="144"/>
       <c r="E90" s="144"/>
@@ -6049,7 +6059,7 @@
     <row r="91" spans="2:16">
       <c r="B91" s="143"/>
       <c r="C91" s="144" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D91" s="144"/>
       <c r="E91" s="144"/>
@@ -6090,7 +6100,7 @@
         <v>1600</v>
       </c>
       <c r="F93" s="144" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G93" s="144"/>
       <c r="H93" s="144"/>
@@ -6124,8 +6134,12 @@
       <c r="B95" s="143"/>
       <c r="C95" s="144"/>
       <c r="D95" s="144"/>
-      <c r="E95" s="144"/>
-      <c r="F95" s="144"/>
+      <c r="E95" s="144">
+        <v>0.35</v>
+      </c>
+      <c r="F95" s="161" t="s">
+        <v>143</v>
+      </c>
       <c r="G95" s="144"/>
       <c r="H95" s="144"/>
       <c r="I95" s="144"/>
@@ -6412,7 +6426,7 @@
     <row r="112" spans="2:16">
       <c r="B112" s="143"/>
       <c r="C112" s="144" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D112" s="144"/>
       <c r="E112" s="144"/>
@@ -6431,7 +6445,7 @@
     <row r="113" spans="2:16">
       <c r="B113" s="143"/>
       <c r="C113" s="144" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D113" s="144"/>
       <c r="E113" s="144"/>
@@ -6625,7 +6639,7 @@
         <v>35</v>
       </c>
       <c r="F124" s="144" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G124" s="144"/>
       <c r="H124" s="144"/>
@@ -6646,7 +6660,7 @@
         <v>1400</v>
       </c>
       <c r="F125" s="144" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G125" s="144"/>
       <c r="H125" s="144"/>
